--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spon2-Itga4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spon2-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Spon2</t>
+  </si>
+  <si>
+    <t>Itga4</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Spon2</t>
-  </si>
-  <si>
-    <t>Itga4</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +525,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H2">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I2">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J2">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N2">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P2">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q2">
-        <v>0.270142494612</v>
+        <v>0.05017297027555555</v>
       </c>
       <c r="R2">
-        <v>2.431282451508</v>
+        <v>0.45155673248</v>
       </c>
       <c r="S2">
-        <v>0.0006719941118521242</v>
+        <v>6.672375750552087E-05</v>
       </c>
       <c r="T2">
-        <v>0.0006719941118521242</v>
+        <v>6.672375750552087E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +587,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H3">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I3">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J3">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>0.412548</v>
       </c>
       <c r="O3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P3">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q3">
-        <v>0.09199215329600001</v>
+        <v>0.02071284327466667</v>
       </c>
       <c r="R3">
-        <v>0.827929379664</v>
+        <v>0.186415589472</v>
       </c>
       <c r="S3">
-        <v>0.0002288354723321044</v>
+        <v>2.7545483640263E-05</v>
       </c>
       <c r="T3">
-        <v>0.0002288354723321044</v>
+        <v>2.7545483640263E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,31 +649,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>26</v>
       </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H4">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I4">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J4">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N4">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P4">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q4">
-        <v>15.67802787733067</v>
+        <v>13.76702493636089</v>
       </c>
       <c r="R4">
-        <v>141.102250895976</v>
+        <v>123.903224427248</v>
       </c>
       <c r="S4">
-        <v>0.03899994495183605</v>
+        <v>0.0183084164318201</v>
       </c>
       <c r="T4">
-        <v>0.03899994495183605</v>
+        <v>0.0183084164318201</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +711,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H5">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I5">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J5">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N5">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P5">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q5">
-        <v>0.2878502059026667</v>
+        <v>0.08675442370933334</v>
       </c>
       <c r="R5">
-        <v>2.590651853124001</v>
+        <v>0.780789813384</v>
       </c>
       <c r="S5">
-        <v>0.0007160430044145341</v>
+        <v>0.0001153725023318579</v>
       </c>
       <c r="T5">
-        <v>0.0007160430044145341</v>
+        <v>0.0001153725023318578</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,31 +773,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6689560000000001</v>
+        <v>0.1506213333333333</v>
       </c>
       <c r="H6">
-        <v>2.006868</v>
+        <v>0.451864</v>
       </c>
       <c r="I6">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="J6">
-        <v>0.1299255090071103</v>
+        <v>0.03138751147083011</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N6">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P6">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q6">
-        <v>35.90220848341334</v>
+        <v>9.677193278660445</v>
       </c>
       <c r="R6">
-        <v>323.1198763507201</v>
+        <v>87.094739507944</v>
       </c>
       <c r="S6">
-        <v>0.08930869146667546</v>
+        <v>0.01286945329553237</v>
       </c>
       <c r="T6">
-        <v>0.08930869146667546</v>
+        <v>0.01286945329553237</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>11.988124</v>
       </c>
       <c r="I7">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J7">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N7">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P7">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q7">
-        <v>1.613709383516</v>
+        <v>1.331108008408889</v>
       </c>
       <c r="R7">
-        <v>14.523384451644</v>
+        <v>11.97997207568</v>
       </c>
       <c r="S7">
-        <v>0.004014189642843044</v>
+        <v>0.001770206696532839</v>
       </c>
       <c r="T7">
-        <v>0.004014189642843043</v>
+        <v>0.001770206696532839</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>11.988124</v>
       </c>
       <c r="I8">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J8">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.412548</v>
       </c>
       <c r="O8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P8">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q8">
         <v>0.5495196199946666</v>
       </c>
       <c r="R8">
-        <v>4.945676579951999</v>
+        <v>4.945676579952</v>
       </c>
       <c r="S8">
-        <v>0.001366959868768567</v>
+        <v>0.0007307921709174537</v>
       </c>
       <c r="T8">
-        <v>0.001366959868768567</v>
+        <v>0.0007307921709174535</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>11.988124</v>
       </c>
       <c r="I9">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J9">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N9">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P9">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q9">
-        <v>93.6534651351742</v>
+        <v>365.2444143551742</v>
       </c>
       <c r="R9">
-        <v>842.8811862165679</v>
+        <v>3287.199729196568</v>
       </c>
       <c r="S9">
-        <v>0.232968075666055</v>
+        <v>0.4857292601939896</v>
       </c>
       <c r="T9">
-        <v>0.232968075666055</v>
+        <v>0.4857292601939895</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>11.988124</v>
       </c>
       <c r="I10">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J10">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N10">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P10">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q10">
-        <v>1.719487261636889</v>
+        <v>2.301627899049334</v>
       </c>
       <c r="R10">
-        <v>15.475385354732</v>
+        <v>20.714651091444</v>
       </c>
       <c r="S10">
-        <v>0.004277317853617668</v>
+        <v>0.00306087642331454</v>
       </c>
       <c r="T10">
-        <v>0.004277317853617667</v>
+        <v>0.003060876423314539</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>11.988124</v>
       </c>
       <c r="I11">
-        <v>0.776116372746167</v>
+        <v>0.8327226323932284</v>
       </c>
       <c r="J11">
-        <v>0.7761163727461668</v>
+        <v>0.8327226323932283</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N11">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P11">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q11">
-        <v>214.4635955992178</v>
+        <v>256.7396229762671</v>
       </c>
       <c r="R11">
-        <v>1930.17236039296</v>
+        <v>2310.656606786404</v>
       </c>
       <c r="S11">
-        <v>0.5334898297148827</v>
+        <v>0.341431496908474</v>
       </c>
       <c r="T11">
-        <v>0.5334898297148826</v>
+        <v>0.3414314969084739</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H12">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I12">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J12">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N12">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P12">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q12">
-        <v>0.060875035724</v>
+        <v>0.1630705920977778</v>
       </c>
       <c r="R12">
-        <v>0.547875321516</v>
+        <v>1.46763532888</v>
       </c>
       <c r="S12">
-        <v>0.000151429954121326</v>
+        <v>0.0002168634343084715</v>
       </c>
       <c r="T12">
-        <v>0.000151429954121326</v>
+        <v>0.0002168634343084714</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H13">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I13">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J13">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1246,22 +1246,22 @@
         <v>0.412548</v>
       </c>
       <c r="O13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P13">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q13">
-        <v>0.02072989525866667</v>
+        <v>0.06732022438133334</v>
       </c>
       <c r="R13">
-        <v>0.186569057328</v>
+        <v>0.605882019432</v>
       </c>
       <c r="S13">
-        <v>5.15667391505478E-05</v>
+        <v>8.952745476633239E-05</v>
       </c>
       <c r="T13">
-        <v>5.156673915054779E-05</v>
+        <v>8.952745476633238E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H14">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I14">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J14">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N14">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P14">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q14">
-        <v>3.532952149883556</v>
+        <v>44.74514654937645</v>
       </c>
       <c r="R14">
-        <v>31.796569348952</v>
+        <v>402.706318944388</v>
       </c>
       <c r="S14">
-        <v>0.008788410152156756</v>
+        <v>0.05950543273624296</v>
       </c>
       <c r="T14">
-        <v>0.008788410152156756</v>
+        <v>0.05950543273624294</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H15">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I15">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J15">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N15">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P15">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q15">
-        <v>0.06486536519422223</v>
+        <v>0.2819664684726667</v>
       </c>
       <c r="R15">
-        <v>0.5837882867480001</v>
+        <v>2.537698216254</v>
       </c>
       <c r="S15">
-        <v>0.0001613561151727026</v>
+        <v>0.0003749800373334582</v>
       </c>
       <c r="T15">
-        <v>0.0001613561151727025</v>
+        <v>0.0003749800373334581</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1507453333333333</v>
+        <v>0.4895446666666667</v>
       </c>
       <c r="H16">
-        <v>0.452236</v>
+        <v>1.468634</v>
       </c>
       <c r="I16">
-        <v>0.02927795574563924</v>
+        <v>0.1020146914147866</v>
       </c>
       <c r="J16">
-        <v>0.02927795574563923</v>
+        <v>0.1020146914147865</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N16">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P16">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q16">
-        <v>8.090353304604445</v>
+        <v>31.45250578406823</v>
       </c>
       <c r="R16">
-        <v>72.81317974144001</v>
+        <v>283.072552056614</v>
       </c>
       <c r="S16">
-        <v>0.0201251927850379</v>
+        <v>0.04182788775213535</v>
       </c>
       <c r="T16">
-        <v>0.0201251927850379</v>
+        <v>0.04182788775213533</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,10 +1455,10 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1470,16 +1470,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H17">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I17">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J17">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.403827</v>
+        <v>0.3331066666666667</v>
       </c>
       <c r="N17">
-        <v>1.211481</v>
+        <v>0.99932</v>
       </c>
       <c r="O17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="P17">
-        <v>0.005172149156755267</v>
+        <v>0.002125805913843485</v>
       </c>
       <c r="Q17">
-        <v>0.107336139728</v>
+        <v>0.05414948662666667</v>
       </c>
       <c r="R17">
-        <v>0.966025257552</v>
+        <v>0.48734537964</v>
       </c>
       <c r="S17">
-        <v>0.0002670044710653561</v>
+        <v>7.201202549665366E-05</v>
       </c>
       <c r="T17">
-        <v>0.000267004471065356</v>
+        <v>7.201202549665364E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1517,10 +1517,10 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1532,16 +1532,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H18">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I18">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J18">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1556,22 +1556,22 @@
         <v>0.412548</v>
       </c>
       <c r="O18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="P18">
-        <v>0.001761282092183924</v>
+        <v>0.0008775937418887864</v>
       </c>
       <c r="Q18">
-        <v>0.03655138609066667</v>
+        <v>0.022354463444</v>
       </c>
       <c r="R18">
-        <v>0.328962474816</v>
+        <v>0.201190170996</v>
       </c>
       <c r="S18">
-        <v>9.092355598566591E-05</v>
+        <v>2.972863256473749E-05</v>
       </c>
       <c r="T18">
-        <v>9.09235559856659E-05</v>
+        <v>2.972863256473749E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1579,13 +1579,13 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1594,16 +1594,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H19">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I19">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J19">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>23.43656066666667</v>
+        <v>91.40156066666667</v>
       </c>
       <c r="N19">
-        <v>70.309682</v>
+        <v>274.204682</v>
       </c>
       <c r="O19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="P19">
-        <v>0.3001715771588914</v>
+        <v>0.5833025803538128</v>
       </c>
       <c r="Q19">
-        <v>6.229375327704888</v>
+        <v>14.85814630041267</v>
       </c>
       <c r="R19">
-        <v>56.06437794934399</v>
+        <v>133.723316703714</v>
       </c>
       <c r="S19">
-        <v>0.01549590910066554</v>
+        <v>0.0197594709917602</v>
       </c>
       <c r="T19">
-        <v>0.01549590910066554</v>
+        <v>0.0197594709917602</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1641,13 +1641,13 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1656,16 +1656,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H20">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I20">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J20">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4302976666666667</v>
+        <v>0.5759770000000001</v>
       </c>
       <c r="N20">
-        <v>1.290893</v>
+        <v>1.727931</v>
       </c>
       <c r="O20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="P20">
-        <v>0.005511181059720521</v>
+        <v>0.00367574544541637</v>
       </c>
       <c r="Q20">
-        <v>0.1143719723395556</v>
+        <v>0.09363024514300002</v>
       </c>
       <c r="R20">
-        <v>1.029347751056</v>
+        <v>0.8426722062870001</v>
       </c>
       <c r="S20">
-        <v>0.0002845064864137124</v>
+        <v>0.0001245164824365151</v>
       </c>
       <c r="T20">
-        <v>0.0002845064864137124</v>
+        <v>0.0001245164824365151</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1703,13 +1703,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1718,16 +1718,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.2657973333333333</v>
+        <v>0.162559</v>
       </c>
       <c r="H21">
-        <v>0.797392</v>
+        <v>0.487677</v>
       </c>
       <c r="I21">
-        <v>0.05162350562079702</v>
+        <v>0.03387516472115508</v>
       </c>
       <c r="J21">
-        <v>0.05162350562079701</v>
+        <v>0.03387516472115507</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,338 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>53.66901333333334</v>
+        <v>64.24849033333334</v>
       </c>
       <c r="N21">
-        <v>161.00704</v>
+        <v>192.745471</v>
       </c>
       <c r="O21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450386</v>
       </c>
       <c r="P21">
-        <v>0.6873838105324488</v>
+        <v>0.4100182745450385</v>
       </c>
       <c r="Q21">
-        <v>14.26508062663111</v>
+        <v>10.44417034009633</v>
       </c>
       <c r="R21">
-        <v>128.38572563968</v>
+        <v>93.99753306086701</v>
       </c>
       <c r="S21">
-        <v>0.03548516200666674</v>
+        <v>0.01388943658889697</v>
       </c>
       <c r="T21">
-        <v>0.03548516200666674</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H22">
-        <v>0.201677</v>
-      </c>
-      <c r="I22">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J22">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>0.403827</v>
-      </c>
-      <c r="N22">
-        <v>1.211481</v>
-      </c>
-      <c r="O22">
-        <v>0.005172149156755267</v>
-      </c>
-      <c r="P22">
-        <v>0.005172149156755267</v>
-      </c>
-      <c r="Q22">
-        <v>0.027147539293</v>
-      </c>
-      <c r="R22">
-        <v>0.244327853637</v>
-      </c>
-      <c r="S22">
-        <v>6.753097687341712E-05</v>
-      </c>
-      <c r="T22">
-        <v>6.75309768734171E-05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H23">
-        <v>0.201677</v>
-      </c>
-      <c r="I23">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J23">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="L23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M23">
-        <v>0.137516</v>
-      </c>
-      <c r="N23">
-        <v>0.412548</v>
-      </c>
-      <c r="O23">
-        <v>0.001761282092183924</v>
-      </c>
-      <c r="P23">
-        <v>0.001761282092183924</v>
-      </c>
-      <c r="Q23">
-        <v>0.009244604777333333</v>
-      </c>
-      <c r="R23">
-        <v>0.08320144299599999</v>
-      </c>
-      <c r="S23">
-        <v>2.299645594703878E-05</v>
-      </c>
-      <c r="T23">
-        <v>2.299645594703877E-05</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H24">
-        <v>0.201677</v>
-      </c>
-      <c r="I24">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J24">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>23.43656066666667</v>
-      </c>
-      <c r="N24">
-        <v>70.309682</v>
-      </c>
-      <c r="O24">
-        <v>0.3001715771588914</v>
-      </c>
-      <c r="P24">
-        <v>0.3001715771588914</v>
-      </c>
-      <c r="Q24">
-        <v>1.575538415190444</v>
-      </c>
-      <c r="R24">
-        <v>14.179845736714</v>
-      </c>
-      <c r="S24">
-        <v>0.003919237288178115</v>
-      </c>
-      <c r="T24">
-        <v>0.003919237288178115</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H25">
-        <v>0.201677</v>
-      </c>
-      <c r="I25">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J25">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>0.4302976666666667</v>
-      </c>
-      <c r="N25">
-        <v>1.290893</v>
-      </c>
-      <c r="O25">
-        <v>0.005511181059720521</v>
-      </c>
-      <c r="P25">
-        <v>0.005511181059720521</v>
-      </c>
-      <c r="Q25">
-        <v>0.02892704750677778</v>
-      </c>
-      <c r="R25">
-        <v>0.260343427561</v>
-      </c>
-      <c r="S25">
-        <v>7.195760010190506E-05</v>
-      </c>
-      <c r="T25">
-        <v>7.195760010190505E-05</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.06722566666666667</v>
-      </c>
-      <c r="H26">
-        <v>0.201677</v>
-      </c>
-      <c r="I26">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="J26">
-        <v>0.01305665688028658</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>53.66901333333334</v>
-      </c>
-      <c r="N26">
-        <v>161.00704</v>
-      </c>
-      <c r="O26">
-        <v>0.6873838105324488</v>
-      </c>
-      <c r="P26">
-        <v>0.6873838105324488</v>
-      </c>
-      <c r="Q26">
-        <v>3.607935200675556</v>
-      </c>
-      <c r="R26">
-        <v>32.47141680608</v>
-      </c>
-      <c r="S26">
-        <v>0.008974934559186108</v>
-      </c>
-      <c r="T26">
-        <v>0.008974934559186106</v>
+        <v>0.01388943658889696</v>
       </c>
     </row>
   </sheetData>
